--- a/Slides/data/Area-Fixa-Supressao.xlsx
+++ b/Slides/data/Area-Fixa-Supressao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEIVISON\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A241186B-C056-4369-BF49-5DCF727EA9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A241186B-C056-4369-BF49-5DCF727EA9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFAC4E6-42C4-4880-A984-0B83FBF2A453}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,10 +409,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1880,20 +1880,20 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1914,20 +1914,20 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
@@ -1948,20 +1948,20 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1982,20 +1982,20 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
@@ -2016,20 +2016,20 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -2050,20 +2050,20 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -2084,20 +2084,20 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
@@ -2118,20 +2118,20 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
